--- a/Niveles/niveles_unificados.xlsx
+++ b/Niveles/niveles_unificados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpavez\Desktop\Compensaciones\git\compensaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpavez\Desktop\Compensaciones\git\compensaciones\Niveles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12510" windowHeight="7470" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12510" windowHeight="7470" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Niveles_Unificados" sheetId="1" r:id="rId1"/>
@@ -4418,7 +4418,7 @@
   <dimension ref="A1:H575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E575" sqref="E7:E575"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16753,18 +16753,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
@@ -16783,7 +16782,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -16797,7 +16796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -16811,7 +16810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -16825,7 +16824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -16839,7 +16838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -16853,7 +16852,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -16877,8 +16876,11 @@
       <c r="C8" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -16892,7 +16894,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -16906,7 +16908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -16920,7 +16922,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -16934,7 +16936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -16948,7 +16950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -16962,7 +16964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -16976,7 +16978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -16990,7 +16992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -17004,7 +17006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -17018,7 +17020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -17032,7 +17034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -17046,7 +17048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -17060,7 +17062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -17074,7 +17076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>111</v>
       </c>
@@ -17088,7 +17090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -17102,7 +17104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -17116,7 +17118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -17130,7 +17132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -17144,7 +17146,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>145</v>
       </c>
@@ -17158,7 +17160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -17172,7 +17174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -17196,8 +17198,11 @@
       <c r="C31" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>162</v>
       </c>
@@ -17211,7 +17216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>165</v>
       </c>
@@ -17225,7 +17230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>170</v>
       </c>
@@ -17239,7 +17244,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>173</v>
       </c>
@@ -17253,7 +17258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>176</v>
       </c>
@@ -17267,7 +17272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>181</v>
       </c>
@@ -17281,7 +17286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -17295,7 +17300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>187</v>
       </c>
@@ -17309,7 +17314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>196</v>
       </c>
@@ -17333,8 +17338,11 @@
       <c r="C41" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>205</v>
       </c>
@@ -17348,7 +17356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>208</v>
       </c>
@@ -17362,7 +17370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>211</v>
       </c>
@@ -17376,7 +17384,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -17390,7 +17398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -17404,7 +17412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>222</v>
       </c>
@@ -17418,7 +17426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>227</v>
       </c>
@@ -17432,7 +17440,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>230</v>
       </c>
@@ -17446,7 +17454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>239</v>
       </c>
@@ -17460,7 +17468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>244</v>
       </c>
@@ -17474,7 +17482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>247</v>
       </c>
@@ -17488,7 +17496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>250</v>
       </c>
@@ -17502,7 +17510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>253</v>
       </c>
@@ -17526,8 +17534,11 @@
       <c r="C55" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>263</v>
       </c>
@@ -17541,7 +17552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>266</v>
       </c>
@@ -17555,7 +17566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>271</v>
       </c>
@@ -17579,8 +17590,11 @@
       <c r="C59" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>283</v>
       </c>
@@ -17594,7 +17608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>286</v>
       </c>
@@ -17608,7 +17622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>289</v>
       </c>
@@ -17622,7 +17636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>292</v>
       </c>
@@ -17636,7 +17650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>308</v>
       </c>
@@ -17650,7 +17664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>313</v>
       </c>
@@ -17664,7 +17678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>322</v>
       </c>
@@ -17678,7 +17692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>328</v>
       </c>
@@ -17692,7 +17706,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>334</v>
       </c>
@@ -17706,7 +17720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>339</v>
       </c>
@@ -17730,8 +17744,11 @@
       <c r="C70" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>355</v>
       </c>
@@ -17745,7 +17762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>362</v>
       </c>
@@ -17759,7 +17776,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>369</v>
       </c>
@@ -17773,7 +17790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>380</v>
       </c>
@@ -17787,7 +17804,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>387</v>
       </c>
@@ -17801,7 +17818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -17815,7 +17832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>403</v>
       </c>
@@ -17829,7 +17846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>412</v>
       </c>
@@ -17843,7 +17860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>415</v>
       </c>
@@ -17857,7 +17874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>427</v>
       </c>
@@ -17871,7 +17888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>438</v>
       </c>
@@ -17895,8 +17912,11 @@
       <c r="C82" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>460</v>
       </c>
@@ -17910,7 +17930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>465</v>
       </c>
@@ -17924,7 +17944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>473</v>
       </c>
@@ -17938,7 +17958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>489</v>
       </c>
@@ -17952,7 +17972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>502</v>
       </c>
@@ -17966,7 +17986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>505</v>
       </c>
@@ -17980,7 +18000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>528</v>
       </c>
@@ -17994,7 +18014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>540</v>
       </c>
@@ -18008,7 +18028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>544</v>
       </c>
@@ -18032,8 +18052,11 @@
       <c r="C92" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>604</v>
       </c>
@@ -18047,7 +18070,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>619</v>
       </c>
@@ -18061,7 +18084,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>626</v>
       </c>
@@ -18075,7 +18098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>641</v>
       </c>
@@ -18089,7 +18112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>648</v>
       </c>
@@ -18103,7 +18126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>651</v>
       </c>
@@ -18117,7 +18140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>657</v>
       </c>
@@ -18131,7 +18154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>669</v>
       </c>
@@ -18145,7 +18168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>680</v>
       </c>
@@ -18159,7 +18182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>691</v>
       </c>
@@ -18173,7 +18196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>717</v>
       </c>
@@ -18187,7 +18210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>720</v>
       </c>
@@ -18201,7 +18224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>724</v>
       </c>
@@ -18215,7 +18238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>745</v>
       </c>
@@ -18229,7 +18252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>748</v>
       </c>
@@ -18243,7 +18266,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>759</v>
       </c>
@@ -18257,7 +18280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>764</v>
       </c>
@@ -18271,7 +18294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>770</v>
       </c>
@@ -18285,7 +18308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>787</v>
       </c>
@@ -18299,7 +18322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>800</v>
       </c>
@@ -18313,7 +18336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>816</v>
       </c>
@@ -18327,7 +18350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>823</v>
       </c>
@@ -18341,7 +18364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>831</v>
       </c>
@@ -18355,7 +18378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>838</v>
       </c>
@@ -18369,7 +18392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>841</v>
       </c>
@@ -18383,7 +18406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>844</v>
       </c>
@@ -18397,7 +18420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>853</v>
       </c>
@@ -18411,7 +18434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>860</v>
       </c>
@@ -18425,7 +18448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>873</v>
       </c>
@@ -18439,7 +18462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>878</v>
       </c>
@@ -18453,7 +18476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>887</v>
       </c>
@@ -18465,7 +18488,7 @@
       </c>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>893</v>
       </c>
@@ -18479,7 +18502,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>899</v>
       </c>
@@ -18493,7 +18516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>902</v>
       </c>
@@ -18507,7 +18530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>907</v>
       </c>
@@ -18521,7 +18544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>931</v>
       </c>
@@ -18535,7 +18558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>857</v>
       </c>
@@ -18549,7 +18572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>949</v>
       </c>
@@ -18563,7 +18586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>952</v>
       </c>
@@ -18577,7 +18600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>965</v>
       </c>
@@ -18591,7 +18614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>974</v>
       </c>
@@ -18605,7 +18628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>977</v>
       </c>
@@ -18619,7 +18642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1038</v>
       </c>
@@ -18633,7 +18656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1081</v>
       </c>
@@ -18647,7 +18670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1090</v>
       </c>
@@ -18661,7 +18684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1101</v>
       </c>
@@ -18675,7 +18698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1108</v>
       </c>
@@ -18689,7 +18712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1135</v>
       </c>
@@ -18703,7 +18726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1147</v>
       </c>
@@ -18717,7 +18740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1182</v>
       </c>
@@ -18731,7 +18754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1189</v>
       </c>
@@ -18745,7 +18768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1207</v>
       </c>
@@ -18759,7 +18782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1212</v>
       </c>
@@ -18773,7 +18796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1215</v>
       </c>
@@ -18787,7 +18810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1218</v>
       </c>
@@ -18811,8 +18834,11 @@
       <c r="C148" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1231</v>
       </c>
@@ -18826,7 +18852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1246</v>
       </c>
@@ -18854,7 +18880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1253</v>
       </c>
@@ -18868,7 +18894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1258</v>
       </c>
@@ -18882,7 +18908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1265</v>
       </c>
@@ -18896,7 +18922,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1272</v>
       </c>
@@ -18910,7 +18936,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1277</v>
       </c>
@@ -18924,7 +18950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1284</v>
       </c>
@@ -18948,8 +18974,11 @@
       <c r="C158" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1336</v>
       </c>
@@ -18958,13 +18987,7 @@
       <c r="D160" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D159">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="18"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D159"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
